--- a/Naive Bayes/PFMatrix2.xlsx
+++ b/Naive Bayes/PFMatrix2.xlsx
@@ -429,46 +429,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6095617529880478</v>
+        <v>0.3820606526896198</v>
       </c>
       <c r="C2">
-        <v>0.5604838709677419</v>
+        <v>0.3889212074203348</v>
       </c>
       <c r="D2">
-        <v>0.6129032258064516</v>
+        <v>0.4004486819966349</v>
       </c>
       <c r="E2">
-        <v>0.6451612903225806</v>
+        <v>0.4115684093437152</v>
       </c>
       <c r="F2">
-        <v>0.592741935483871</v>
+        <v>0.3744041070773744</v>
       </c>
       <c r="G2">
-        <v>0.6895161290322581</v>
+        <v>0.4184760223595175</v>
       </c>
       <c r="H2">
-        <v>0.6048387096774194</v>
+        <v>0.3669149816719877</v>
       </c>
       <c r="I2">
-        <v>0.7580645161290323</v>
+        <v>0.3631532329495128</v>
       </c>
       <c r="J2">
-        <v>0.6491935483870968</v>
+        <v>0.4131363474546102</v>
       </c>
       <c r="K2">
-        <v>0.6895161290322581</v>
+        <v>0.4251335328989846</v>
       </c>
       <c r="L2">
-        <v>0.6411981107826757</v>
+        <v>0.3944217175862292</v>
       </c>
       <c r="M2">
-        <v>0.5861387438020357</v>
+        <v>0.3017804498984539</v>
       </c>
       <c r="N2">
-        <v>0.5871989602206217</v>
+        <v>0.3331577476655161</v>
       </c>
       <c r="O2">
-        <v>0.6411981107826757</v>
+        <v>0.3944217175862292</v>
       </c>
     </row>
   </sheetData>
